--- a/web_scraper/processed_judgements/Cr.-171-M-of-2021.xlsx
+++ b/web_scraper/processed_judgements/Cr.-171-M-of-2021.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">On September 3, 2017, at around 10:30 pm, the appellant, Muqaddar Khan, went to the house of Khaista Rahman, a lineman, in the village of Dheri. Khan questioned Rahman about disconnecting the electricity supply to the area, leading to a fight between them. During the fight, Noor Hayat, the nephew of Khaista Rahman, also came out of his house to separate them. Khan fired his pistol at both Rahman and Noor Hayat, causing injuries to their bodies. Khaista Rahman died on September 7, 2017, due to excessive bleeding from the wounds.   * The appellant allegedly shot and injured the deceased on September 3, 2017, in Batkhela. * The deceased died on September 7, 2017, four days after the incident. * The appellant was charged with murder under Section 302 of the Pakistan Penal Code. * The prosecution's case was based on the dying declaration of the deceased, eyewitness accounts of Noor Hayat and Mudassir Khan, and circumstantial evidence, including a post-mortem report and forensic analysis of the crime weapon.   * The accused, Muqadar Khan, was involved in a fight with the deceased, a lineman in WAPDA, at the deceased's house in the evening. * The accused had come to the house to question the deceased about disconnecting electricity to his village and some adjacent areas. * The fight took place in front of the house, and the deceased sustained injuries, leading to his death. * The accused also injured Noor Hayat, another person who was present at the scene. * The accused was arrested and taken to the hospital, where he was examined and found to have a single lacerated skin deep wound on his forehead.  </t>
+          <t xml:space="preserve"> * The appellant, Mugaddar Khan, was charged with murder (302 PPC), causing grievous bodily harm (324 PPC), and causing harm to a person (337-F(ii) PPC) in a case filed by Khaista Rehman, who was the lineman in a village. * On September 3, 2017, Khaista Rehman reported to the hospital that he was attacked by the appellant, who was armed with a pistol, and his nephew, Noor Hayat, tried to intervene but both were injured. * Khaista Rehman died on September 7, 2017, due to excessive bleeding from his wounds. * The prosecution alleged that the appellant fired at Khaista Rehman and Noor Hayat with his pistol, resulting in their injuries.   * The deceased was injured in a fight with the appellant on September 3, 2017. * The appellant fired a 30-bore pistol at the deceased and the injured witness, Noor Hayat. * The deceased died on September 7, 2017, four days after the incident. * The appellant claimed that the death was not a direct consequence of the injuries he caused, citing the interval between the occurrence and the death.   * The accused, Muqadar Khan, murdered a lineman named deceased in WAPDA and injured another person, Noor Hayat, at the deceased's house at night. * The motive for the murder was that the deceased had disconnected electricity in Muqadar's village and some adjacent areas. * Muqadar had come to the deceased's house to question him, and a fight took place between the two parties. * Muqadar was identified by the deceased and eyewitnesses, and an energy saver bulb was recovered from the main gate of the deceased's house. * Muqadar sustained an injury on his forehead, which he claimed was caused by the deceased, but the prosecution argued that the injury was self-inflicted.  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Khaista Rahman (deceased) - gave a dying declaration, recorded in a Murasila, stating that Khan had questioned him about the electricity supply and then fired at him and Noor Hayat. * Noor Hayat (PW-8) - an eye-witness who tried to separate Khan and Khaista Rahman during the fight and was injured in the process. * Mudasir Khan (PW-9) - an eye-witness who witnessed the fight. * Dr. Atta Ullah Shah (PW-4) - examined the injured Khaista Rahman and Noor Hayat and gave medical reports. * Dr. Gul Rahman (PW-3) - examined Khaista Rahman on September 3, 2017, and gave a medical report.   * Noor Hayat (PW-8), a victim of the same occurrence, testified that he saw the appellant and the deceased fighting, and the appellant opened fire, injuring both of them. * Mudassir Khan (PW-9), the son of the deceased, testified that he and his brother Wagar Ali were present at the scene and saw the appellant firing at the deceased and Noor Hayat. * Dr. Attaullah (PW-4) conducted the post-mortem examination of the deceased and reported two entry and exit wounds caused by a bullet. * Dr. Gul Rahman (PW-3) examined the injured Noor Hayat at the hospital and reported his injuries.   * The prosecution presented several witnesses, including the police officer who arrested the accused, a doctor who examined the accused, and eyewitnesses who identified the accused at the scene. * The accused's own testimony was also considered, including his statement under Section 342, Cr.P.C, where he attributed the injury on his forehead to the deceased.  </t>
+          <t xml:space="preserve"> * PW-2, Zia Ullah, recorded the dying declaration of Khaista Rehman in the shape of a Murasila. * PW-8, Noor Hayat, was an injured eyewitness who verified the contents of the Murasila. * PW-4, Dr. Atta Ullah, examined the injured and gave his opinion that they were able to give statements to the police. * PW-9, Mudassir Khan, was another eyewitness who witnessed the occurrence.   * Dr. Attaullah (PW-4) conducted the post-mortem examination and reported two entry and two exit wounds on the body of the deceased. * Noor Hayat (PW-8) was an eye-witness who was injured in the fight and verified the dying declaration of the deceased. * Mudassir Khan (PW-9) was another eye-witness who was the son of the deceased and witnessed the fight. * Dr. Gul Rahman (PW-3) examined the deceased at the hospital and reported the injuries.   * The deceased made a dying declaration mentioning the motive for the murder. * The eyewitnesses, including Noor Hayat, identified Muqadar as the perpetrator. * Abdul Kamal, the investigating officer, testified that Muqadar was arrested in injured condition and produced him before a doctor for medical examination. * Muharrir Sardar Ali, a doctor, testified that Muqadar sustained a lacerated skin deep wound on his forehead.  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The appellant, Muqaddar Khan, was convicted and sentenced to:  * Life imprisonment for the murder of Khaista Rahman (section 302 PPC). * 7 years rigorous imprisonment for attempting to murder Noor Hayat (section 324 PPC). * 2 years rigorous imprisonment for causing harm to Noor Hayat (section 337-F(ii) PPC).  The court held that the prosecution had adequately discharged its burden in establishing the guilt of the appellant. The dying declaration of Khaista Rahman was considered a substantive piece of evidence, and the court was satisfied that it was genuine and not influenced or tutored. The court also relied on the medical evidence, eye-witness accounts, and circumstantial evidence to convict the appellant.  * The court held that the death of the deceased was the direct consequence of the injuries sustained in the occurrence, and the appellant was responsible for the murder. * The court rejected the appellant's defense that the death was not caused by the injuries, citing the doctrine of Novus Actus Interveniens, which requires that there be no direct relationship between the act of negligence and the injury. * The court also rejected the appellant's argument that the dying declaration was not put to him during his examination under Section 342, Cr.P.C., as the term "dying declaration" was not specifically mentioned, but the appellant was confronted with the Murasila (Ex.PA) and FIR (Ex.PW-7/1) during his examination. * The court relied on the ocular account of the eyewitnesses, the dying declaration of the deceased, and circumstantial evidence, including the post-mortem report, medico-legal report, and forensic analysis of the crime weapon. * The court held that the testimony of the eyewitnesses, although related to the deceased, was reliable and consistent, and that the prosecution had established the guilt of the appellant beyond a reasonable doubt.  **Basis of Decision:**  * Section 302 of the Pakistan Penal Code (Murder) * Article 40 of the Qanun-e-Shahadat, 1984 (Recovery of property on the pointation of the accused) * The doctrine of Novus Actus Interveniens (New Act Intervening) * The principle that a dying declaration, even if made before a private person, is free from influence and can be relied upon as evidence.  * The trial court convicted the accused of murder (Section 302(b) PPC) and attempting to murder Noor Hayat (Section 307 PPC). * The prosecution proved its case against the accused through direct and circumstantial evidence, which was properly appreciated by the trial court. * The accused's defense plea of self-defense was rejected due to inconsistencies in his testimony and failure to produce evidence to support his claim. * The Supreme Court upheld the conviction and sentence of the accused, finding that the prosecution had proved its case beyond reasonable doubt. * The court also rejected the accused's plea to convert his conviction from Section 302(b) to Section 302(c) PPC, finding that the circumstances of the case did not warrant such a conversion. </t>
+          <t xml:space="preserve"> * The trial court convicted the appellant of the charges and sentenced him to life imprisonment, 7 years' rigorous imprisonment, and a fine. * The appellate court upheld the conviction and sentence, holding that the dying declaration of Khaista Rehman was genuine and corroborated by the evidence of Noor Hayat and Dr. Atta Ullah. * The court also relied on the medical evidence and the recovery of the crime weapon and matching FSL report. * The appellant's defense that the dying declaration was fabricated was rejected, and the court held that the prosecution had adequately discharged its burden to establish the guilt of the appellant.  * The court held that the death of the deceased was the direct consequence of the injuries he sustained in the fight with the appellant. * The court rejected the appellant's claim that the death was not a direct consequence of the injuries, citing the doctrine of Novus Actus Interveniens. * The court also rejected the defense's objection that the dying declaration was not put to the appellant during his examination under section 342, Cr.P.C. * The court relied on the ocular account of the eye-witnesses, including Noor Hayat and Mudassir Khan, as well as the circumstantial evidence on record, including the post-mortem report and medico-legal reports. * The court held that the prosecution had established the guilt of the appellant beyond a reasonable doubt and sentenced him to life imprisonment.  **Basis of Decision:**  * The court applied the doctrine of Novus Actus Interveniens to determine that the death of the deceased was a direct consequence of the injuries he sustained in the fight with the appellant. * The court also relied on the principles of law set out in the cases of "Sabir and others Vs. The State and others" and "Wazir Gul Vs. The State". * The court held that the ocular account of the eye-witnesses and the circumstantial evidence on record were sufficient to establish the guilt of the appellant beyond a reasonable doubt.  * The prosecution proved its case against Muqadar beyond reasonable doubt through direct and circumstantial evidence. * The trial court convicted Muqadar of murder and attempting to murder Noor Hayat. * The Supreme Court dismissed Muqadar's appeal, upholding his conviction and sentences. * The court held that Muqadar had failed to prove his plea of self-defense and that the prosecution evidence was sufficient to prove his guilt beyond reasonable doubt. * The court also noted that Muqadar had taken two inconsistent versions of the events, including claiming that the injury on his forehead was caused by the deceased and later attributing it to his own companions. </t>
         </is>
       </c>
     </row>
